--- a/光环0812.xlsx
+++ b/光环0812.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caesar1868\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\guanghuan812\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26F0E225-14C0-4373-882C-670B2E79CB50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB03AD4-B47F-471E-AD18-71939FF75805}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="20520" windowHeight="10404" xr2:uid="{AC30B855-4C8D-4D65-A817-F70B6231B905}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="20520" windowHeight="10404" xr2:uid="{AC30B855-4C8D-4D65-A817-F70B6231B905}"/>
   </bookViews>
   <sheets>
     <sheet name="组织工作列表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>时间</t>
   </si>
@@ -267,13 +267,17 @@
     <t>向大家讲清楚游戏玩法，并由一位组织者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>分组讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -684,19 +688,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -779,34 +783,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B9565-C4CE-451C-ADE0-68FA400709AE}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1171,7 @@
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="36" t="s">
@@ -1183,7 +1187,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
-      <c r="C4" s="41"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="37" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1201,7 @@
     </row>
     <row r="5" spans="1:7" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="38" t="s">
@@ -1213,7 +1217,7 @@
     </row>
     <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="36" t="s">
@@ -1229,19 +1233,21 @@
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
-      <c r="C7" s="44"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -1255,7 +1261,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="39" t="s">
         <v>42</v>
       </c>
@@ -1267,7 +1273,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="36" t="s">
@@ -1281,7 +1287,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>

--- a/光环0812.xlsx
+++ b/光环0812.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Git\guanghuan812\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBB03AD4-B47F-471E-AD18-71939FF75805}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{564D8854-1F2E-4533-97E9-E203A06180D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="20520" windowHeight="10404" xr2:uid="{AC30B855-4C8D-4D65-A817-F70B6231B905}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="20520" windowHeight="10404" xr2:uid="{AC30B855-4C8D-4D65-A817-F70B6231B905}"/>
   </bookViews>
   <sheets>
     <sheet name="组织工作列表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>时间</t>
   </si>
@@ -37,238 +37,706 @@
     <t>主持人语言</t>
   </si>
   <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾分享阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论与解答阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扫码签到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，发一张白纸自制铭牌，让学员自己写上姓名、行业、工作角色、个人兴趣等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adi老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环老师，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雅老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环老师，提供活动意见，资源等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次活动组织者之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖伟能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨会平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次活动演讲嘉宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾提问环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:30-2:00</t>
+  </si>
+  <si>
+    <t>2:00-2:10</t>
+  </si>
+  <si>
+    <t>2:10-2:20</t>
+  </si>
+  <si>
+    <t>2:20~2:35</t>
+  </si>
+  <si>
+    <t>2:35-2:45</t>
+  </si>
+  <si>
+    <t>3:15-3:25</t>
+  </si>
+  <si>
+    <t>分组讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自我介绍:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个人拿着铭牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，自我介绍，时长20秒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向大家讲清楚游戏玩法，并由一位组织者给大家讲述规则
+然后所有参与者
+惩罚不事先明示，事后让被惩罚人选择
+1、讲笑话
+2、俯卧撑（男性）
+3、万福金安（女性）
+4、透露隐私（为什么要去那里）
+以上时常控制在一分钟以内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:45-3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>休息</t>
-  </si>
-  <si>
-    <t>阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到的工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码签到的二维码，铭牌制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入场阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自我介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉宾分享阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论与解答阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组自我介绍，了解详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扫码签到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，发一张白纸自制铭牌，让学员自己写上姓名、行业、工作角色、个人兴趣等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要什么视频？需要细化，需要提供视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>案例分享</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一讨论</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>案例分享</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二讨论</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉宾分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adi老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环老师，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雅老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环老师，提供活动意见，资源等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘众</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次活动组织者之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赖伟能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨会平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次活动演讲嘉宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">需要主持人和现场组织者严控时间，在PPT中体现问题
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:25-3:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:30-4:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">铭牌在签到处自己写自己名字，倒计时器
+需要主持人和现场组织者严控时间，在PPT中体现问题
+Guide：
 1、姓名
 2、哪里人
 3、行业
-4、
+4、自己发挥
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘉宾提问环节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:30-2:00</t>
-  </si>
-  <si>
-    <t>2:00-2:10</t>
-  </si>
-  <si>
-    <t>2:10-2:20</t>
-  </si>
-  <si>
-    <t>自我介绍:每个人拿着铭牌，自我介绍，时长20秒</t>
-  </si>
-  <si>
-    <t>2:20~2:35</t>
-  </si>
-  <si>
     <t>破冰游戏:下一个要去的城市的经度由西往东排列，排列好后，站错了的男的做5个俯卧撑，女的给组织者端杯水</t>
-  </si>
-  <si>
-    <t>2:35-2:45</t>
-  </si>
-  <si>
-    <t>2:45-3:15</t>
-  </si>
-  <si>
-    <t>3:15-3:25</t>
-  </si>
-  <si>
-    <t>3:15-3:45</t>
-  </si>
-  <si>
-    <t>3:50-4:20</t>
-  </si>
-  <si>
-    <t>向大家讲清楚游戏玩法，并由一位组织者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组自我介绍，了解详情，产生组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品经理实战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>： 如果你是一个产品经理，根据破冰游戏的旅游目的地需求，如何设计一款旅游产品，满足大家旅游需求，让大家愿意购买；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:00-4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照，自由活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM和PD的区别，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否需要转产品经理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？（问题的设置）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据平安打架的热点事件，引出项目经理和产品经理的不同，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关注点不同，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、对于工作成功的定义是什么？现状和工作内容
+3、技能方面有什么异同？
+4、发展方向和升级阶梯
+5、如果需要转，如何跨出第一步？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备选案例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如何跨出转职为互联网产品经理？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何转型为产品经理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>案例分享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二讨论（备用活动，考虑作为课后活动）争取到4:15分结束
+组长组织课后讨论</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扫码签到的二维码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铭牌制作 A4纸，（现场是否能提供相应的铭牌夹）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>视频，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开场话术</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">需要什么视频？需要细化，需要提供视频
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赞助场地视频
+光环的宣传视频</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>案例分享</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">一讨论
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+分享流程：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">主持人抛出问题，各组讨论，组长代表本组发言
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抛出案例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">社会热点案例，平安打架事件，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抛出问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">现在社会都说人人都是产品经理，大家都认为产品经理职位高大上，但是。。。（抛出案例）是否需要转产品经理？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引导讨论：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声明为开放讨论，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">举例讨论的方向
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分组讨论（15-20分钟）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">得出讨论结果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组长发言（5分钟 X 组数）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发表讨论结果和感言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点       评（3分钟）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自由发言或者主持人点评</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +788,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -354,18 +855,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -649,23 +1150,152 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -674,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -682,9 +1312,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,9 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,12 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,9 +1357,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,60 +1372,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B9565-C4CE-451C-ADE0-68FA400709AE}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1143,180 +1824,203 @@
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="61.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" style="43" customWidth="1"/>
     <col min="7" max="7" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="22" t="s">
+    <row r="1" spans="1:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>32</v>
+      <c r="D5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="32"/>
+    <row r="6" spans="1:7" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="39" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="149.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="G12" s="54"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="37" t="s">
+    <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="E13" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1330,96 +2034,96 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="5" width="35" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="5" width="35" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="12"/>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11">
         <v>15999519135</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
